--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H2">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I2">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J2">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.14727450397984</v>
+        <v>2.476839</v>
       </c>
       <c r="N2">
-        <v>2.14727450397984</v>
+        <v>7.430517</v>
       </c>
       <c r="O2">
-        <v>0.051114900231116</v>
+        <v>0.0525987134655237</v>
       </c>
       <c r="P2">
-        <v>0.051114900231116</v>
+        <v>0.05675564862155354</v>
       </c>
       <c r="Q2">
-        <v>15.65985294183124</v>
+        <v>19.47665650102</v>
       </c>
       <c r="R2">
-        <v>15.65985294183124</v>
+        <v>175.28990850918</v>
       </c>
       <c r="S2">
-        <v>0.006578714714933489</v>
+        <v>0.006925743455388113</v>
       </c>
       <c r="T2">
-        <v>0.006578714714933489</v>
+        <v>0.007813318816861257</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H3">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I3">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J3">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.97504439500075</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N3">
-        <v>6.97504439500075</v>
+        <v>22.018916</v>
       </c>
       <c r="O3">
-        <v>0.1660377831047052</v>
+        <v>0.1558662275458673</v>
       </c>
       <c r="P3">
-        <v>0.1660377831047052</v>
+        <v>0.1681845098427879</v>
       </c>
       <c r="Q3">
-        <v>50.86828409037054</v>
+        <v>57.71534651718221</v>
       </c>
       <c r="R3">
-        <v>50.86828409037054</v>
+        <v>519.4381186546399</v>
       </c>
       <c r="S3">
-        <v>0.02136980023451002</v>
+        <v>0.02052311614141258</v>
       </c>
       <c r="T3">
-        <v>0.02136980023451002</v>
+        <v>0.02315327597119923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H4">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I4">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J4">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.90231301628358</v>
+        <v>9.137454333333332</v>
       </c>
       <c r="N4">
-        <v>6.90231301628358</v>
+        <v>27.412363</v>
       </c>
       <c r="O4">
-        <v>0.1643064454671981</v>
+        <v>0.1940450478546679</v>
       </c>
       <c r="P4">
-        <v>0.1643064454671981</v>
+        <v>0.2093806450230146</v>
       </c>
       <c r="Q4">
-        <v>50.33786159764475</v>
+        <v>71.8524939828911</v>
       </c>
       <c r="R4">
-        <v>50.33786159764475</v>
+        <v>646.6724458460199</v>
       </c>
       <c r="S4">
-        <v>0.02114696938986617</v>
+        <v>0.02555017284045959</v>
       </c>
       <c r="T4">
-        <v>0.02114696938986617</v>
+        <v>0.02882457999120806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H5">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I5">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J5">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.667611629702</v>
+        <v>17.78856566666667</v>
       </c>
       <c r="N5">
-        <v>15.667611629702</v>
+        <v>53.365697</v>
       </c>
       <c r="O5">
-        <v>0.3729604220735484</v>
+        <v>0.3777620057111716</v>
       </c>
       <c r="P5">
-        <v>0.3729604220735484</v>
+        <v>0.4076169595435007</v>
       </c>
       <c r="Q5">
-        <v>114.262286268529</v>
+        <v>139.8806233007089</v>
       </c>
       <c r="R5">
-        <v>114.262286268529</v>
+        <v>1258.92560970638</v>
       </c>
       <c r="S5">
-        <v>0.0480016630315056</v>
+        <v>0.04974043215835117</v>
       </c>
       <c r="T5">
-        <v>0.0480016630315056</v>
+        <v>0.05611496542501906</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H6">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I6">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J6">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.3165346052589</v>
+        <v>10.346848</v>
       </c>
       <c r="N6">
-        <v>10.3165346052589</v>
+        <v>20.693696</v>
       </c>
       <c r="O6">
-        <v>0.2455804491234322</v>
+        <v>0.2197280054227695</v>
       </c>
       <c r="P6">
-        <v>0.2455804491234322</v>
+        <v>0.1580622369691433</v>
       </c>
       <c r="Q6">
-        <v>75.23742981544019</v>
+        <v>81.36257720597332</v>
       </c>
       <c r="R6">
-        <v>75.23742981544019</v>
+        <v>488.1754632358399</v>
       </c>
       <c r="S6">
-        <v>0.03160729468400304</v>
+        <v>0.02893188245981898</v>
       </c>
       <c r="T6">
-        <v>0.03160729468400304</v>
+        <v>0.02175978392179259</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H7">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I7">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J7">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.14727450397984</v>
+        <v>2.476839</v>
       </c>
       <c r="N7">
-        <v>2.14727450397984</v>
+        <v>7.430517</v>
       </c>
       <c r="O7">
-        <v>0.051114900231116</v>
+        <v>0.0525987134655237</v>
       </c>
       <c r="P7">
-        <v>0.051114900231116</v>
+        <v>0.05675564862155354</v>
       </c>
       <c r="Q7">
-        <v>29.34903727412688</v>
+        <v>37.47402338612901</v>
       </c>
       <c r="R7">
-        <v>29.34903727412688</v>
+        <v>337.266210475161</v>
       </c>
       <c r="S7">
-        <v>0.01232955022640536</v>
+        <v>0.01332546334120295</v>
       </c>
       <c r="T7">
-        <v>0.01232955022640536</v>
+        <v>0.01503320100403304</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H8">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I8">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J8">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.97504439500075</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N8">
-        <v>6.97504439500075</v>
+        <v>22.018916</v>
       </c>
       <c r="O8">
-        <v>0.1660377831047052</v>
+        <v>0.1558662275458673</v>
       </c>
       <c r="P8">
-        <v>0.1660377831047052</v>
+        <v>0.1681845098427879</v>
       </c>
       <c r="Q8">
-        <v>95.33519704078259</v>
+        <v>111.0471011803364</v>
       </c>
       <c r="R8">
-        <v>95.33519704078259</v>
+        <v>999.4239106230278</v>
       </c>
       <c r="S8">
-        <v>0.04005038016340007</v>
+        <v>0.03948746203945525</v>
       </c>
       <c r="T8">
-        <v>0.04005038016340007</v>
+        <v>0.04454801598851321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H9">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I9">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J9">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.90231301628358</v>
+        <v>9.137454333333332</v>
       </c>
       <c r="N9">
-        <v>6.90231301628358</v>
+        <v>27.412363</v>
       </c>
       <c r="O9">
-        <v>0.1643064454671981</v>
+        <v>0.1940450478546679</v>
       </c>
       <c r="P9">
-        <v>0.1643064454671981</v>
+        <v>0.2093806450230146</v>
       </c>
       <c r="Q9">
-        <v>94.34110152993267</v>
+        <v>138.2476525026532</v>
       </c>
       <c r="R9">
-        <v>94.34110152993267</v>
+        <v>1244.228872523879</v>
       </c>
       <c r="S9">
-        <v>0.03963275997312305</v>
+        <v>0.04915976078814542</v>
       </c>
       <c r="T9">
-        <v>0.03963275997312305</v>
+        <v>0.05545987755286991</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H10">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I10">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J10">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.667611629702</v>
+        <v>17.78856566666667</v>
       </c>
       <c r="N10">
-        <v>15.667611629702</v>
+        <v>53.365697</v>
       </c>
       <c r="O10">
-        <v>0.3729604220735484</v>
+        <v>0.3777620057111716</v>
       </c>
       <c r="P10">
-        <v>0.3729604220735484</v>
+        <v>0.4076169595435007</v>
       </c>
       <c r="Q10">
-        <v>214.1455677252268</v>
+        <v>269.1370435455668</v>
       </c>
       <c r="R10">
-        <v>214.1455677252268</v>
+        <v>2422.233391910101</v>
       </c>
       <c r="S10">
-        <v>0.08996269650581999</v>
+        <v>0.09570298258536303</v>
       </c>
       <c r="T10">
-        <v>0.08996269650581999</v>
+        <v>0.1079678910257958</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H11">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I11">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J11">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.3165346052589</v>
+        <v>10.346848</v>
       </c>
       <c r="N11">
-        <v>10.3165346052589</v>
+        <v>20.693696</v>
       </c>
       <c r="O11">
-        <v>0.2455804491234322</v>
+        <v>0.2197280054227695</v>
       </c>
       <c r="P11">
-        <v>0.2455804491234322</v>
+        <v>0.1580622369691433</v>
       </c>
       <c r="Q11">
-        <v>141.0068242827727</v>
+        <v>156.5455097907947</v>
       </c>
       <c r="R11">
-        <v>141.0068242827727</v>
+        <v>939.2730587447679</v>
       </c>
       <c r="S11">
-        <v>0.05923706137349209</v>
+        <v>0.0556663326607014</v>
       </c>
       <c r="T11">
-        <v>0.05923706137349209</v>
+        <v>0.04186687029776724</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H12">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I12">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J12">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.14727450397984</v>
+        <v>2.476839</v>
       </c>
       <c r="N12">
-        <v>2.14727450397984</v>
+        <v>7.430517</v>
       </c>
       <c r="O12">
-        <v>0.051114900231116</v>
+        <v>0.0525987134655237</v>
       </c>
       <c r="P12">
-        <v>0.051114900231116</v>
+        <v>0.05675564862155354</v>
       </c>
       <c r="Q12">
-        <v>29.3064181876138</v>
+        <v>35.622793462492</v>
       </c>
       <c r="R12">
-        <v>29.3064181876138</v>
+        <v>320.605141162428</v>
       </c>
       <c r="S12">
-        <v>0.01231164591960107</v>
+        <v>0.01266718076958311</v>
       </c>
       <c r="T12">
-        <v>0.01231164591960107</v>
+        <v>0.01429055559177082</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H13">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I13">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J13">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.97504439500075</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N13">
-        <v>6.97504439500075</v>
+        <v>22.018916</v>
       </c>
       <c r="O13">
-        <v>0.1660377831047052</v>
+        <v>0.1558662275458673</v>
       </c>
       <c r="P13">
-        <v>0.1660377831047052</v>
+        <v>0.1681845098427879</v>
       </c>
       <c r="Q13">
-        <v>95.19675641758697</v>
+        <v>105.5613353601049</v>
       </c>
       <c r="R13">
-        <v>95.19675641758697</v>
+        <v>950.0520182409439</v>
       </c>
       <c r="S13">
-        <v>0.03999222116482296</v>
+        <v>0.03753676753882211</v>
       </c>
       <c r="T13">
-        <v>0.03999222116482296</v>
+        <v>0.04234732834451924</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H14">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I14">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J14">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.90231301628358</v>
+        <v>9.137454333333332</v>
       </c>
       <c r="N14">
-        <v>6.90231301628358</v>
+        <v>27.412363</v>
       </c>
       <c r="O14">
-        <v>0.1643064454671981</v>
+        <v>0.1940450478546679</v>
       </c>
       <c r="P14">
-        <v>0.1643064454671981</v>
+        <v>0.2093806450230146</v>
       </c>
       <c r="Q14">
-        <v>94.20410447853749</v>
+        <v>131.4181698888324</v>
       </c>
       <c r="R14">
-        <v>94.20410447853749</v>
+        <v>1182.763528999492</v>
       </c>
       <c r="S14">
-        <v>0.03957520742002669</v>
+        <v>0.04673125133048368</v>
       </c>
       <c r="T14">
-        <v>0.03957520742002669</v>
+        <v>0.05272014011317135</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H15">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I15">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J15">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.667611629702</v>
+        <v>17.78856566666667</v>
       </c>
       <c r="N15">
-        <v>15.667611629702</v>
+        <v>53.365697</v>
       </c>
       <c r="O15">
-        <v>0.3729604220735484</v>
+        <v>0.3777620057111716</v>
       </c>
       <c r="P15">
-        <v>0.3729604220735484</v>
+        <v>0.4076169595435007</v>
       </c>
       <c r="Q15">
-        <v>213.8345970997843</v>
+        <v>255.8415790197276</v>
       </c>
       <c r="R15">
-        <v>213.8345970997843</v>
+        <v>2302.574211177548</v>
       </c>
       <c r="S15">
-        <v>0.08983205753768216</v>
+        <v>0.0909752216156425</v>
       </c>
       <c r="T15">
-        <v>0.08983205753768216</v>
+        <v>0.1026342392692322</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H16">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I16">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J16">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.3165346052589</v>
+        <v>10.346848</v>
       </c>
       <c r="N16">
-        <v>10.3165346052589</v>
+        <v>20.693696</v>
       </c>
       <c r="O16">
-        <v>0.2455804491234322</v>
+        <v>0.2197280054227695</v>
       </c>
       <c r="P16">
-        <v>0.2455804491234322</v>
+        <v>0.1580622369691433</v>
       </c>
       <c r="Q16">
-        <v>140.8020617896487</v>
+        <v>148.8121065970773</v>
       </c>
       <c r="R16">
-        <v>140.8020617896487</v>
+        <v>892.872639582464</v>
       </c>
       <c r="S16">
-        <v>0.05915104051291406</v>
+        <v>0.0529163962661277</v>
       </c>
       <c r="T16">
-        <v>0.05915104051291406</v>
+        <v>0.03979863219305003</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H17">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I17">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J17">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.14727450397984</v>
+        <v>2.476839</v>
       </c>
       <c r="N17">
-        <v>2.14727450397984</v>
+        <v>7.430517</v>
       </c>
       <c r="O17">
-        <v>0.051114900231116</v>
+        <v>0.0525987134655237</v>
       </c>
       <c r="P17">
-        <v>0.051114900231116</v>
+        <v>0.05675564862155354</v>
       </c>
       <c r="Q17">
-        <v>30.66864315409433</v>
+        <v>36.022156506013</v>
       </c>
       <c r="R17">
-        <v>30.66864315409433</v>
+        <v>324.199408554117</v>
       </c>
       <c r="S17">
-        <v>0.01288391754088152</v>
+        <v>0.01280919107740184</v>
       </c>
       <c r="T17">
-        <v>0.01288391754088152</v>
+        <v>0.01445076536815304</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H18">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I18">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J18">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.97504439500075</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N18">
-        <v>6.97504439500075</v>
+        <v>22.018916</v>
       </c>
       <c r="O18">
-        <v>0.1660377831047052</v>
+        <v>0.1558662275458673</v>
       </c>
       <c r="P18">
-        <v>0.1660377831047052</v>
+        <v>0.1681845098427879</v>
       </c>
       <c r="Q18">
-        <v>99.62170516054901</v>
+        <v>106.7447713590795</v>
       </c>
       <c r="R18">
-        <v>99.62170516054901</v>
+        <v>960.7029422317158</v>
       </c>
       <c r="S18">
-        <v>0.04185114509701327</v>
+        <v>0.03795758792574735</v>
       </c>
       <c r="T18">
-        <v>0.04185114509701327</v>
+        <v>0.04282207937577841</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H19">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I19">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J19">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.90231301628358</v>
+        <v>9.137454333333332</v>
       </c>
       <c r="N19">
-        <v>6.90231301628358</v>
+        <v>27.412363</v>
       </c>
       <c r="O19">
-        <v>0.1643064454671981</v>
+        <v>0.1940450478546679</v>
       </c>
       <c r="P19">
-        <v>0.1643064454671981</v>
+        <v>0.2093806450230146</v>
       </c>
       <c r="Q19">
-        <v>98.5829126373537</v>
+        <v>132.8914838880848</v>
       </c>
       <c r="R19">
-        <v>98.5829126373537</v>
+        <v>1196.023354992763</v>
       </c>
       <c r="S19">
-        <v>0.04141474766189734</v>
+        <v>0.04725515001851153</v>
       </c>
       <c r="T19">
-        <v>0.04141474766189734</v>
+        <v>0.05331117954506258</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H20">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I20">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J20">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.667611629702</v>
+        <v>17.78856566666667</v>
       </c>
       <c r="N20">
-        <v>15.667611629702</v>
+        <v>53.365697</v>
       </c>
       <c r="O20">
-        <v>0.3729604220735484</v>
+        <v>0.3777620057111716</v>
       </c>
       <c r="P20">
-        <v>0.3729604220735484</v>
+        <v>0.4076169595435007</v>
       </c>
       <c r="Q20">
-        <v>223.7740862929653</v>
+        <v>258.7097895592552</v>
       </c>
       <c r="R20">
-        <v>223.7740862929653</v>
+        <v>2328.388106033297</v>
       </c>
       <c r="S20">
-        <v>0.0940076436084448</v>
+        <v>0.09199513436975246</v>
       </c>
       <c r="T20">
-        <v>0.0940076436084448</v>
+        <v>0.1037848599303317</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H21">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I21">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J21">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.3165346052589</v>
+        <v>10.346848</v>
       </c>
       <c r="N21">
-        <v>10.3165346052589</v>
+        <v>20.693696</v>
       </c>
       <c r="O21">
-        <v>0.2455804491234322</v>
+        <v>0.2197280054227695</v>
       </c>
       <c r="P21">
-        <v>0.2455804491234322</v>
+        <v>0.1580622369691433</v>
       </c>
       <c r="Q21">
-        <v>147.3468426179949</v>
+        <v>150.4804220217493</v>
       </c>
       <c r="R21">
-        <v>147.3468426179949</v>
+        <v>902.882532130496</v>
       </c>
       <c r="S21">
-        <v>0.06190050732472827</v>
+        <v>0.05350963590319477</v>
       </c>
       <c r="T21">
-        <v>0.06190050732472827</v>
+        <v>0.04024481008466666</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H22">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I22">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J22">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.14727450397984</v>
+        <v>2.476839</v>
       </c>
       <c r="N22">
-        <v>2.14727450397984</v>
+        <v>7.430517</v>
       </c>
       <c r="O22">
-        <v>0.051114900231116</v>
+        <v>0.0525987134655237</v>
       </c>
       <c r="P22">
-        <v>0.051114900231116</v>
+        <v>0.05675564862155354</v>
       </c>
       <c r="Q22">
-        <v>16.68902795893294</v>
+        <v>19.3230854653095</v>
       </c>
       <c r="R22">
-        <v>16.68902795893294</v>
+        <v>115.938512791857</v>
       </c>
       <c r="S22">
-        <v>0.007011071829294562</v>
+        <v>0.006871134821947694</v>
       </c>
       <c r="T22">
-        <v>0.007011071829294562</v>
+        <v>0.005167807840735369</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H23">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I23">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J23">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.97504439500075</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N23">
-        <v>6.97504439500075</v>
+        <v>22.018916</v>
       </c>
       <c r="O23">
-        <v>0.1660377831047052</v>
+        <v>0.1558662275458673</v>
       </c>
       <c r="P23">
-        <v>0.1660377831047052</v>
+        <v>0.1681845098427879</v>
       </c>
       <c r="Q23">
-        <v>54.21137852063787</v>
+        <v>57.26026812420599</v>
       </c>
       <c r="R23">
-        <v>54.21137852063787</v>
+        <v>343.561608745236</v>
       </c>
       <c r="S23">
-        <v>0.02277423644495889</v>
+        <v>0.02036129390042997</v>
       </c>
       <c r="T23">
-        <v>0.02277423644495889</v>
+        <v>0.01531381016277784</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H24">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I24">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J24">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.90231301628358</v>
+        <v>9.137454333333332</v>
       </c>
       <c r="N24">
-        <v>6.90231301628358</v>
+        <v>27.412363</v>
       </c>
       <c r="O24">
-        <v>0.1643064454671981</v>
+        <v>0.1940450478546679</v>
       </c>
       <c r="P24">
-        <v>0.1643064454671981</v>
+        <v>0.2093806450230146</v>
       </c>
       <c r="Q24">
-        <v>53.64609634052869</v>
+        <v>71.28594592477049</v>
       </c>
       <c r="R24">
-        <v>53.64609634052869</v>
+        <v>427.715675548623</v>
       </c>
       <c r="S24">
-        <v>0.02253676102228489</v>
+        <v>0.02534871287706771</v>
       </c>
       <c r="T24">
-        <v>0.02253676102228489</v>
+        <v>0.01906486782070267</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H25">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I25">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J25">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.667611629702</v>
+        <v>17.78856566666667</v>
       </c>
       <c r="N25">
-        <v>15.667611629702</v>
+        <v>53.365697</v>
       </c>
       <c r="O25">
-        <v>0.3729604220735484</v>
+        <v>0.3777620057111716</v>
       </c>
       <c r="P25">
-        <v>0.3729604220735484</v>
+        <v>0.4076169595435007</v>
       </c>
       <c r="Q25">
-        <v>121.7716729058943</v>
+        <v>138.7776818284395</v>
       </c>
       <c r="R25">
-        <v>121.7716729058943</v>
+        <v>832.666090970637</v>
       </c>
       <c r="S25">
-        <v>0.05115636139009587</v>
+        <v>0.04934823498206243</v>
       </c>
       <c r="T25">
-        <v>0.05115636139009587</v>
+        <v>0.03711500389312184</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H26">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I26">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J26">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.3165346052589</v>
+        <v>10.346848</v>
       </c>
       <c r="N26">
-        <v>10.3165346052589</v>
+        <v>20.693696</v>
       </c>
       <c r="O26">
-        <v>0.2455804491234322</v>
+        <v>0.2197280054227695</v>
       </c>
       <c r="P26">
-        <v>0.2455804491234322</v>
+        <v>0.1580622369691433</v>
       </c>
       <c r="Q26">
-        <v>80.18207925784671</v>
+        <v>80.72104331390399</v>
       </c>
       <c r="R26">
-        <v>80.18207925784671</v>
+        <v>322.884173255616</v>
       </c>
       <c r="S26">
-        <v>0.03368454522829478</v>
+        <v>0.02870375813292662</v>
       </c>
       <c r="T26">
-        <v>0.03368454522829478</v>
+        <v>0.01439214047186678</v>
       </c>
     </row>
   </sheetData>
